--- a/Res/Прогрессия сложности по уровням.xlsx
+++ b/Res/Прогрессия сложности по уровням.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\techn\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\techn\source\unity\DispatcherGame\Res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BCB6A5-90FC-4D26-96EB-B1F64C207A08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06001C26-5611-4431-988C-6BFFEA69152E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BF618684-61AC-4A7F-95D5-44426493F4CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{BF618684-61AC-4A7F-95D5-44426493F4CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
   <si>
     <t>level</t>
   </si>
@@ -394,7 +396,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B2" sqref="B2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,10 +596,250 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2C9021-7EED-4D43-8F57-1C0AEAA2ADD8}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.8181818181818201</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.8181818181818183</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.5454545454545454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2.6363636363636367</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.6363636363636367</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.5909090909090911</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2.4545454545454546</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.4545454545454546</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.6363636363636365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2.2727272727272725</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.2727272727272725</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.6818181818181819</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2.0909090909090899</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.0909090909090908</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.4166666666666667</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.7272727272727275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.9090909090909089</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.9090909090909089</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.5833333333333335</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.7727272727272729</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.7272727272727271</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.7272727272727271</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.8181818181818183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.5454545454545452</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.5454545454545452</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.8636363636363638</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.3636363636363633</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.3636363636363633</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.9090909090909092</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.1818181818181812</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.1818181818181812</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.8333333333333335</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.9545454545454548</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.99999999999999956</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.99999999999999956</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8F776D-A5CF-4B93-95CA-245136017984}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,93 +869,153 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>3</v>
+        <v>1.9999999999999998</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" s="1">
+        <v>1.9090909090909089</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.8181818181818183</v>
+      </c>
       <c r="D3" s="1">
-        <v>1.1666666666666667</v>
+        <v>1.5454545454545454</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" s="1">
+        <v>1.8181818181818179</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.6363636363636367</v>
+      </c>
       <c r="D4" s="1">
-        <v>1.3333333333333335</v>
+        <v>1.5909090909090911</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" s="1">
+        <v>1.7272727272727271</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.4545454545454546</v>
+      </c>
       <c r="D5" s="1">
-        <v>1.5</v>
+        <v>1.6363636363636365</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" s="1">
+        <v>1.636363636363636</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.2727272727272725</v>
+      </c>
       <c r="D6" s="1">
-        <v>1.25</v>
+        <v>1.6818181818181819</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" s="1">
+        <v>1.545454545454545</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.0909090909090908</v>
+      </c>
       <c r="D7" s="1">
-        <v>1.4166666666666667</v>
+        <v>1.7272727272727275</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" s="1">
+        <v>1.4545454545454541</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.9090909090909089</v>
+      </c>
       <c r="D8" s="1">
-        <v>1.5833333333333335</v>
+        <v>1.7727272727272729</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" s="1">
+        <v>1.3636363636363633</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.7272727272727271</v>
+      </c>
       <c r="D9" s="1">
-        <v>1.75</v>
+        <v>1.8181818181818183</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" s="1">
+        <v>1.2727272727272723</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.5454545454545452</v>
+      </c>
       <c r="D10" s="1">
-        <v>1.5</v>
+        <v>1.8636363636363638</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" s="1">
+        <v>1.1818181818181812</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.3636363636363633</v>
+      </c>
       <c r="D11" s="1">
-        <v>1.6666666666666667</v>
+        <v>1.9090909090909092</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" s="1">
+        <v>1.0909090909090904</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.1818181818181812</v>
+      </c>
       <c r="D12" s="1">
-        <v>1.8333333333333335</v>
+        <v>1.9545454545454548</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -721,13 +1023,217 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>0.99999999999999956</v>
+        <v>0.99999999999999933</v>
       </c>
       <c r="C13" s="1">
         <v>0.99999999999999956</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C7056A-DC24-4688-B1D0-AC026ED5008B}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.9090909090909089</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.8181818181818183</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.5909090909090908</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.8181818181818179</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.6363636363636367</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.6818181818181817</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.7272727272727271</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.4545454545454546</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.7727272727272727</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.636363636363636</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.2727272727272725</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.8636363636363638</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.545454545454545</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.0909090909090908</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.9545454545454546</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.4545454545454541</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.9090909090909089</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.0454545454545454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.3636363636363633</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.7272727272727271</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.1363636363636367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.2727272727272723</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.5454545454545452</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.2272727272727275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.1818181818181812</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.3636363636363633</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.3181818181818183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.0909090909090904</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.1818181818181812</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.4090909090909092</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.99999999999999956</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/Res/Прогрессия сложности по уровням.xlsx
+++ b/Res/Прогрессия сложности по уровням.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\techn\source\unity\DispatcherGame\Res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06001C26-5611-4431-988C-6BFFEA69152E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89B1D45-FCDF-4592-84E3-DCC969EB4F41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{BF618684-61AC-4A7F-95D5-44426493F4CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{BF618684-61AC-4A7F-95D5-44426493F4CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
     <sheet name="Лист4" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
   <si>
     <t>level</t>
   </si>
@@ -40,6 +41,9 @@
   </si>
   <si>
     <t>launch interval</t>
+  </si>
+  <si>
+    <t>wagons</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C7056A-DC24-4688-B1D0-AC026ED5008B}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -1240,4 +1244,283 @@
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455D5341-C2C2-47E9-8A0F-3EDFCB1B63AD}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.95454545454545447</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.9545454545454546</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.0909090909090908</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.9090909090909089</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.1818181818181817</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.86363636363636354</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.8636363636363635</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.2727272727272725</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.81818181818181812</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.8181818181818181</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.3636363636363638</v>
+      </c>
+      <c r="E6" s="1">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.7727272727272726</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.7727272727272725</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.4545454545454546</v>
+      </c>
+      <c r="E7" s="1">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.72727272727272707</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.7272727272727271</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.5454545454545454</v>
+      </c>
+      <c r="E8" s="1">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.68181818181818166</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.6818181818181817</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.6363636363636367</v>
+      </c>
+      <c r="E9" s="1">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.63636363636363624</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.6363636363636362</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.7272727272727275</v>
+      </c>
+      <c r="E10" s="1">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.59090909090909072</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.5909090909090908</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.8181818181818183</v>
+      </c>
+      <c r="E11" s="1">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.54545454545454519</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.5454545454545452</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.9090909090909092</v>
+      </c>
+      <c r="E12" s="1">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.49999999999999978</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.4999999999999998</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Res/Прогрессия сложности по уровням.xlsx
+++ b/Res/Прогрессия сложности по уровням.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\techn\source\unity\DispatcherGame\Res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89B1D45-FCDF-4592-84E3-DCC969EB4F41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3147CD-7F72-4F08-99F7-C05454C03131}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{BF618684-61AC-4A7F-95D5-44426493F4CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{BF618684-61AC-4A7F-95D5-44426493F4CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
     <sheet name="Лист4" sheetId="4" r:id="rId4"/>
     <sheet name="Лист5" sheetId="5" r:id="rId5"/>
+    <sheet name="Лист6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="5">
   <si>
     <t>level</t>
   </si>
@@ -1250,7 +1251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455D5341-C2C2-47E9-8A0F-3EDFCB1B63AD}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1523,4 +1524,283 @@
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C86B4-CE0B-4CC6-B82F-D7FB227184CB}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.95454545454545447</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.4545454545454546</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.0909090909090908</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.4090909090909092</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.1818181818181817</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.86363636363636354</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.3636363636363633</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.2727272727272725</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.81818181818181812</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.3181818181818179</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.3636363636363638</v>
+      </c>
+      <c r="E6" s="1">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.7727272727272726</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.2727272727272725</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.4545454545454546</v>
+      </c>
+      <c r="E7" s="1">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.72727272727272707</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.2272727272727271</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.5454545454545454</v>
+      </c>
+      <c r="E8" s="1">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.68181818181818166</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.1818181818181817</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.6363636363636367</v>
+      </c>
+      <c r="E9" s="1">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.63636363636363624</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.1363636363636362</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.7272727272727275</v>
+      </c>
+      <c r="E10" s="1">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.59090909090909072</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2.0909090909090908</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.8181818181818183</v>
+      </c>
+      <c r="E11" s="1">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.54545454545454519</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.045454545454545</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.9090909090909092</v>
+      </c>
+      <c r="E12" s="1">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.49999999999999978</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>